--- a/results/preprocessed/preprocessed_pretest.xlsx
+++ b/results/preprocessed/preprocessed_pretest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominik\Documents\GitHub\master_arbeit\results\preprocessed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE40CA1-57AB-40B6-A923-3C6DB0492709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41738B88-C47A-4EE8-B2F1-6018C650233E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3285" yWindow="3285" windowWidth="21600" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="588">
   <si>
     <t>Unique Code</t>
   </si>
@@ -1784,9 +1784,6 @@
   </si>
   <si>
     <t xml:space="preserve">119-29 115-1 136-44 163-71 138-69 138-60 186-76 165-120 131-139 189-167 226-131 239-189 103-266 116-195 101-254 156-187 117-250 125-261 182-203 103-283 103-274 154-152 143-140 148-210 141-187 241-125 197-70 </t>
-  </si>
-  <si>
-    <t>0-0</t>
   </si>
 </sst>
 </file>
@@ -1845,12 +1842,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2189,10 +2185,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G521"/>
+  <dimension ref="A1:G520"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
-      <selection activeCell="G241" sqref="G241"/>
+      <selection activeCell="A241" sqref="A241:XFD241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7002,30 +6998,30 @@
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B241">
-        <v>57</v>
+        <v>144</v>
       </c>
       <c r="C241" t="s">
         <v>63</v>
       </c>
       <c r="E241" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F241">
-        <v>3</v>
-      </c>
-      <c r="G241" s="2" t="s">
-        <v>588</v>
+        <v>1</v>
+      </c>
+      <c r="G241" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B242">
-        <v>144</v>
+        <v>2456</v>
       </c>
       <c r="C242" t="s">
         <v>63</v>
@@ -7037,15 +7033,15 @@
         <v>1</v>
       </c>
       <c r="G242" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B243">
-        <v>2456</v>
+        <v>239</v>
       </c>
       <c r="C243" t="s">
         <v>63</v>
@@ -7057,15 +7053,15 @@
         <v>1</v>
       </c>
       <c r="G243" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B244">
-        <v>239</v>
+        <v>187</v>
       </c>
       <c r="C244" t="s">
         <v>63</v>
@@ -7074,18 +7070,18 @@
         <v>1</v>
       </c>
       <c r="F244">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G244" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B245">
-        <v>187</v>
+        <v>292</v>
       </c>
       <c r="C245" t="s">
         <v>63</v>
@@ -7094,38 +7090,38 @@
         <v>1</v>
       </c>
       <c r="F245">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G245" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B246">
-        <v>292</v>
+        <v>244</v>
       </c>
       <c r="C246" t="s">
         <v>63</v>
       </c>
       <c r="E246" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F246">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G246" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B247">
-        <v>244</v>
+        <v>120</v>
       </c>
       <c r="C247" t="s">
         <v>63</v>
@@ -7134,18 +7130,18 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G247" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B248">
-        <v>120</v>
+        <v>749</v>
       </c>
       <c r="C248" t="s">
         <v>63</v>
@@ -7154,18 +7150,18 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G248" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B249">
-        <v>749</v>
+        <v>737</v>
       </c>
       <c r="C249" t="s">
         <v>63</v>
@@ -7174,18 +7170,18 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G249" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B250">
-        <v>737</v>
+        <v>156</v>
       </c>
       <c r="C250" t="s">
         <v>63</v>
@@ -7194,18 +7190,18 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G250" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B251">
-        <v>156</v>
+        <v>256</v>
       </c>
       <c r="C251" t="s">
         <v>63</v>
@@ -7217,35 +7213,35 @@
         <v>2</v>
       </c>
       <c r="G251" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B252">
-        <v>256</v>
+        <v>157</v>
       </c>
       <c r="C252" t="s">
         <v>63</v>
       </c>
       <c r="E252" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F252">
         <v>2</v>
       </c>
       <c r="G252" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B253">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="C253" t="s">
         <v>63</v>
@@ -7254,18 +7250,18 @@
         <v>1</v>
       </c>
       <c r="F253">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G253" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B254">
-        <v>139</v>
+        <v>37</v>
       </c>
       <c r="C254" t="s">
         <v>63</v>
@@ -7277,15 +7273,15 @@
         <v>1</v>
       </c>
       <c r="G254" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B255">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="C255" t="s">
         <v>63</v>
@@ -7294,18 +7290,18 @@
         <v>1</v>
       </c>
       <c r="F255">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G255" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B256">
-        <v>318</v>
+        <v>137</v>
       </c>
       <c r="C256" t="s">
         <v>63</v>
@@ -7317,15 +7313,15 @@
         <v>3</v>
       </c>
       <c r="G256" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B257">
-        <v>137</v>
+        <v>345</v>
       </c>
       <c r="C257" t="s">
         <v>63</v>
@@ -7334,38 +7330,38 @@
         <v>1</v>
       </c>
       <c r="F257">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G257" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B258">
-        <v>345</v>
+        <v>516</v>
       </c>
       <c r="C258" t="s">
         <v>63</v>
       </c>
       <c r="E258" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F258">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G258" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B259">
-        <v>516</v>
+        <v>122</v>
       </c>
       <c r="C259" t="s">
         <v>63</v>
@@ -7374,18 +7370,18 @@
         <v>0</v>
       </c>
       <c r="F259">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G259" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B260">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C260" t="s">
         <v>63</v>
@@ -7394,38 +7390,38 @@
         <v>0</v>
       </c>
       <c r="F260">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G260" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="B261">
-        <v>129</v>
+        <v>183</v>
       </c>
       <c r="C261" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E261" t="b">
         <v>0</v>
       </c>
       <c r="F261">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G261" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B262">
-        <v>183</v>
+        <v>99</v>
       </c>
       <c r="C262" t="s">
         <v>64</v>
@@ -7437,15 +7433,15 @@
         <v>1</v>
       </c>
       <c r="G262" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B263">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="C263" t="s">
         <v>64</v>
@@ -7457,35 +7453,35 @@
         <v>1</v>
       </c>
       <c r="G263" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B264">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="C264" t="s">
         <v>64</v>
       </c>
       <c r="E264" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F264">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G264" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B265">
-        <v>106</v>
+        <v>180</v>
       </c>
       <c r="C265" t="s">
         <v>64</v>
@@ -7494,38 +7490,38 @@
         <v>1</v>
       </c>
       <c r="F265">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G265" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B266">
-        <v>180</v>
+        <v>85</v>
       </c>
       <c r="C266" t="s">
         <v>64</v>
       </c>
       <c r="E266" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F266">
         <v>1</v>
       </c>
       <c r="G266" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B267">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="C267" t="s">
         <v>64</v>
@@ -7534,58 +7530,58 @@
         <v>0</v>
       </c>
       <c r="F267">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G267" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B268">
-        <v>25</v>
+        <v>126</v>
       </c>
       <c r="C268" t="s">
         <v>64</v>
       </c>
       <c r="E268" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F268">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G268" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B269">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="C269" t="s">
         <v>64</v>
       </c>
       <c r="E269" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F269">
         <v>1</v>
       </c>
       <c r="G269" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B270">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="C270" t="s">
         <v>64</v>
@@ -7597,15 +7593,15 @@
         <v>1</v>
       </c>
       <c r="G270" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B271">
-        <v>67</v>
+        <v>116</v>
       </c>
       <c r="C271" t="s">
         <v>64</v>
@@ -7617,15 +7613,15 @@
         <v>1</v>
       </c>
       <c r="G271" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B272">
-        <v>116</v>
+        <v>205</v>
       </c>
       <c r="C272" t="s">
         <v>64</v>
@@ -7637,55 +7633,55 @@
         <v>1</v>
       </c>
       <c r="G272" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B273">
-        <v>205</v>
+        <v>168</v>
       </c>
       <c r="C273" t="s">
         <v>64</v>
       </c>
       <c r="E273" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F273">
         <v>1</v>
       </c>
       <c r="G273" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B274">
-        <v>168</v>
+        <v>92</v>
       </c>
       <c r="C274" t="s">
         <v>64</v>
       </c>
       <c r="E274" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F274">
         <v>1</v>
       </c>
       <c r="G274" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B275">
-        <v>92</v>
+        <v>465</v>
       </c>
       <c r="C275" t="s">
         <v>64</v>
@@ -7697,15 +7693,15 @@
         <v>1</v>
       </c>
       <c r="G275" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B276">
-        <v>465</v>
+        <v>36</v>
       </c>
       <c r="C276" t="s">
         <v>64</v>
@@ -7714,38 +7710,38 @@
         <v>0</v>
       </c>
       <c r="F276">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G276" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B277">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="C277" t="s">
         <v>64</v>
       </c>
       <c r="E277" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F277">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G277" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B278">
-        <v>89</v>
+        <v>167</v>
       </c>
       <c r="C278" t="s">
         <v>64</v>
@@ -7757,15 +7753,15 @@
         <v>1</v>
       </c>
       <c r="G278" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B279">
-        <v>167</v>
+        <v>101</v>
       </c>
       <c r="C279" t="s">
         <v>64</v>
@@ -7777,35 +7773,35 @@
         <v>1</v>
       </c>
       <c r="G279" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B280">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="C280" t="s">
         <v>64</v>
       </c>
       <c r="E280" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F280">
         <v>1</v>
       </c>
       <c r="G280" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B281">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C281" t="s">
         <v>64</v>
@@ -7817,55 +7813,55 @@
         <v>1</v>
       </c>
       <c r="G281" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B282">
-        <v>74</v>
+        <v>176</v>
       </c>
       <c r="C282" t="s">
         <v>64</v>
       </c>
       <c r="E282" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F282">
         <v>1</v>
       </c>
       <c r="G282" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B283">
-        <v>176</v>
+        <v>73</v>
       </c>
       <c r="C283" t="s">
         <v>64</v>
       </c>
       <c r="E283" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F283">
         <v>1</v>
       </c>
       <c r="G283" t="s">
-        <v>346</v>
+        <v>587</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B284">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C284" t="s">
         <v>64</v>
@@ -7877,15 +7873,15 @@
         <v>1</v>
       </c>
       <c r="G284" t="s">
-        <v>587</v>
+        <v>347</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B285">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C285" t="s">
         <v>64</v>
@@ -7897,15 +7893,15 @@
         <v>1</v>
       </c>
       <c r="G285" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B286">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="C286" t="s">
         <v>64</v>
@@ -7917,15 +7913,15 @@
         <v>1</v>
       </c>
       <c r="G286" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B287">
-        <v>89</v>
+        <v>189</v>
       </c>
       <c r="C287" t="s">
         <v>64</v>
@@ -7937,15 +7933,15 @@
         <v>1</v>
       </c>
       <c r="G287" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B288">
-        <v>189</v>
+        <v>122</v>
       </c>
       <c r="C288" t="s">
         <v>64</v>
@@ -7957,15 +7953,15 @@
         <v>1</v>
       </c>
       <c r="G288" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B289">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="C289" t="s">
         <v>64</v>
@@ -7974,78 +7970,78 @@
         <v>0</v>
       </c>
       <c r="F289">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G289" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B290">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C290" t="s">
         <v>64</v>
       </c>
       <c r="E290" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F290">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G290" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B291">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="C291" t="s">
         <v>64</v>
       </c>
       <c r="E291" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F291">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G291" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B292">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="C292" t="s">
         <v>64</v>
       </c>
       <c r="E292" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F292">
         <v>2</v>
       </c>
       <c r="G292" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B293">
-        <v>146</v>
+        <v>188</v>
       </c>
       <c r="C293" t="s">
         <v>64</v>
@@ -8057,55 +8053,55 @@
         <v>2</v>
       </c>
       <c r="G293" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B294">
-        <v>188</v>
+        <v>74</v>
       </c>
       <c r="C294" t="s">
         <v>64</v>
       </c>
       <c r="E294" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F294">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G294" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B295">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="C295" t="s">
         <v>64</v>
       </c>
       <c r="E295" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F295">
         <v>1</v>
       </c>
       <c r="G295" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B296">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="C296" t="s">
         <v>64</v>
@@ -8114,38 +8110,38 @@
         <v>1</v>
       </c>
       <c r="F296">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G296" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B297">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="C297" t="s">
         <v>64</v>
       </c>
       <c r="E297" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F297">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G297" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B298">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C298" t="s">
         <v>64</v>
@@ -8157,55 +8153,55 @@
         <v>1</v>
       </c>
       <c r="G298" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B299">
-        <v>64</v>
+        <v>161</v>
       </c>
       <c r="C299" t="s">
         <v>64</v>
       </c>
       <c r="E299" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F299">
         <v>1</v>
       </c>
       <c r="G299" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B300">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="C300" t="s">
         <v>64</v>
       </c>
       <c r="E300" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F300">
         <v>1</v>
       </c>
       <c r="G300" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B301">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="C301" t="s">
         <v>64</v>
@@ -8214,18 +8210,18 @@
         <v>0</v>
       </c>
       <c r="F301">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G301" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B302">
-        <v>189</v>
+        <v>132</v>
       </c>
       <c r="C302" t="s">
         <v>64</v>
@@ -8234,38 +8230,38 @@
         <v>0</v>
       </c>
       <c r="F302">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G302" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B303">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="C303" t="s">
         <v>64</v>
       </c>
       <c r="E303" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F303">
         <v>1</v>
       </c>
       <c r="G303" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B304">
-        <v>159</v>
+        <v>106</v>
       </c>
       <c r="C304" t="s">
         <v>64</v>
@@ -8277,35 +8273,35 @@
         <v>1</v>
       </c>
       <c r="G304" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B305">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C305" t="s">
         <v>64</v>
       </c>
       <c r="E305" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F305">
         <v>1</v>
       </c>
       <c r="G305" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B306">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="C306" t="s">
         <v>64</v>
@@ -8314,18 +8310,18 @@
         <v>0</v>
       </c>
       <c r="F306">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G306" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B307">
-        <v>137</v>
+        <v>95</v>
       </c>
       <c r="C307" t="s">
         <v>64</v>
@@ -8337,15 +8333,15 @@
         <v>2</v>
       </c>
       <c r="G307" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B308">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="C308" t="s">
         <v>64</v>
@@ -8357,55 +8353,55 @@
         <v>2</v>
       </c>
       <c r="G308" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B309">
-        <v>66</v>
+        <v>182</v>
       </c>
       <c r="C309" t="s">
         <v>64</v>
       </c>
       <c r="E309" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F309">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G309" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B310">
-        <v>182</v>
+        <v>572</v>
       </c>
       <c r="C310" t="s">
         <v>64</v>
       </c>
       <c r="E310" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F310">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G310" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B311">
-        <v>572</v>
+        <v>69</v>
       </c>
       <c r="C311" t="s">
         <v>64</v>
@@ -8414,18 +8410,18 @@
         <v>0</v>
       </c>
       <c r="F311">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G311" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B312">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C312" t="s">
         <v>64</v>
@@ -8434,38 +8430,38 @@
         <v>0</v>
       </c>
       <c r="F312">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G312" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="B313">
-        <v>80</v>
+        <v>345</v>
       </c>
       <c r="C313" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E313" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F313">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G313" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B314">
-        <v>345</v>
+        <v>25</v>
       </c>
       <c r="C314" t="s">
         <v>65</v>
@@ -8477,15 +8473,15 @@
         <v>1</v>
       </c>
       <c r="G314" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B315">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="C315" t="s">
         <v>65</v>
@@ -8494,18 +8490,18 @@
         <v>1</v>
       </c>
       <c r="F315">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G315" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B316">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="C316" t="s">
         <v>65</v>
@@ -8514,18 +8510,18 @@
         <v>1</v>
       </c>
       <c r="F316">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G316" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B317">
-        <v>33</v>
+        <v>284</v>
       </c>
       <c r="C317" t="s">
         <v>65</v>
@@ -8537,15 +8533,15 @@
         <v>1</v>
       </c>
       <c r="G317" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B318">
-        <v>284</v>
+        <v>62</v>
       </c>
       <c r="C318" t="s">
         <v>65</v>
@@ -8557,55 +8553,55 @@
         <v>1</v>
       </c>
       <c r="G318" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B319">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="C319" t="s">
         <v>65</v>
       </c>
       <c r="E319" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F319">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G319" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B320">
-        <v>32</v>
+        <v>139</v>
       </c>
       <c r="C320" t="s">
         <v>65</v>
       </c>
       <c r="E320" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F320">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G320" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B321">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C321" t="s">
         <v>65</v>
@@ -8614,18 +8610,18 @@
         <v>1</v>
       </c>
       <c r="F321">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G321" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B322">
-        <v>140</v>
+        <v>28</v>
       </c>
       <c r="C322" t="s">
         <v>65</v>
@@ -8634,18 +8630,18 @@
         <v>1</v>
       </c>
       <c r="F322">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G322" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B323">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C323" t="s">
         <v>65</v>
@@ -8657,15 +8653,15 @@
         <v>1</v>
       </c>
       <c r="G323" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B324">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C324" t="s">
         <v>65</v>
@@ -8677,15 +8673,15 @@
         <v>1</v>
       </c>
       <c r="G324" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B325">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="C325" t="s">
         <v>65</v>
@@ -8697,15 +8693,15 @@
         <v>1</v>
       </c>
       <c r="G325" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B326">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="C326" t="s">
         <v>65</v>
@@ -8717,15 +8713,15 @@
         <v>1</v>
       </c>
       <c r="G326" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B327">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="C327" t="s">
         <v>65</v>
@@ -8737,55 +8733,55 @@
         <v>1</v>
       </c>
       <c r="G327" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B328">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="C328" t="s">
         <v>65</v>
       </c>
       <c r="E328" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F328">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G328" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B329">
-        <v>137</v>
+        <v>71</v>
       </c>
       <c r="C329" t="s">
         <v>65</v>
       </c>
       <c r="E329" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F329">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G329" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B330">
-        <v>71</v>
+        <v>145</v>
       </c>
       <c r="C330" t="s">
         <v>65</v>
@@ -8797,15 +8793,15 @@
         <v>1</v>
       </c>
       <c r="G330" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B331">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="C331" t="s">
         <v>65</v>
@@ -8817,55 +8813,55 @@
         <v>1</v>
       </c>
       <c r="G331" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B332">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c r="C332" t="s">
         <v>65</v>
       </c>
       <c r="E332" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F332">
         <v>1</v>
       </c>
       <c r="G332" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B333">
-        <v>146</v>
+        <v>57</v>
       </c>
       <c r="C333" t="s">
         <v>65</v>
       </c>
       <c r="E333" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F333">
         <v>1</v>
       </c>
       <c r="G333" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B334">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="C334" t="s">
         <v>65</v>
@@ -8877,15 +8873,15 @@
         <v>1</v>
       </c>
       <c r="G334" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B335">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="C335" t="s">
         <v>65</v>
@@ -8897,55 +8893,55 @@
         <v>1</v>
       </c>
       <c r="G335" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B336">
-        <v>65</v>
+        <v>246</v>
       </c>
       <c r="C336" t="s">
         <v>65</v>
       </c>
       <c r="E336" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F336">
         <v>1</v>
       </c>
       <c r="G336" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B337">
-        <v>246</v>
+        <v>12</v>
       </c>
       <c r="C337" t="s">
         <v>65</v>
       </c>
       <c r="E337" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F337">
         <v>1</v>
       </c>
       <c r="G337" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B338">
-        <v>12</v>
+        <v>207</v>
       </c>
       <c r="C338" t="s">
         <v>65</v>
@@ -8957,15 +8953,15 @@
         <v>1</v>
       </c>
       <c r="G338" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B339">
-        <v>207</v>
+        <v>80</v>
       </c>
       <c r="C339" t="s">
         <v>65</v>
@@ -8977,15 +8973,15 @@
         <v>1</v>
       </c>
       <c r="G339" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B340">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C340" t="s">
         <v>65</v>
@@ -8997,15 +8993,15 @@
         <v>1</v>
       </c>
       <c r="G340" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B341">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="C341" t="s">
         <v>65</v>
@@ -9017,15 +9013,15 @@
         <v>1</v>
       </c>
       <c r="G341" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B342">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="C342" t="s">
         <v>65</v>
@@ -9037,55 +9033,55 @@
         <v>1</v>
       </c>
       <c r="G342" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B343">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C343" t="s">
         <v>65</v>
       </c>
       <c r="E343" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F343">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G343" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B344">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="C344" t="s">
         <v>65</v>
       </c>
       <c r="E344" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F344">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G344" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B345">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="C345" t="s">
         <v>65</v>
@@ -9097,15 +9093,15 @@
         <v>1</v>
       </c>
       <c r="G345" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B346">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="C346" t="s">
         <v>65</v>
@@ -9117,15 +9113,15 @@
         <v>1</v>
       </c>
       <c r="G346" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B347">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="C347" t="s">
         <v>65</v>
@@ -9137,15 +9133,15 @@
         <v>1</v>
       </c>
       <c r="G347" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B348">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="C348" t="s">
         <v>65</v>
@@ -9154,18 +9150,18 @@
         <v>1</v>
       </c>
       <c r="F348">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G348" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B349">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="C349" t="s">
         <v>65</v>
@@ -9174,18 +9170,18 @@
         <v>1</v>
       </c>
       <c r="F349">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G349" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B350">
-        <v>179</v>
+        <v>34</v>
       </c>
       <c r="C350" t="s">
         <v>65</v>
@@ -9197,15 +9193,15 @@
         <v>1</v>
       </c>
       <c r="G350" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B351">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="C351" t="s">
         <v>65</v>
@@ -9217,15 +9213,15 @@
         <v>1</v>
       </c>
       <c r="G351" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B352">
-        <v>85</v>
+        <v>273</v>
       </c>
       <c r="C352" t="s">
         <v>65</v>
@@ -9237,15 +9233,15 @@
         <v>1</v>
       </c>
       <c r="G352" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B353">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C353" t="s">
         <v>65</v>
@@ -9257,15 +9253,15 @@
         <v>1</v>
       </c>
       <c r="G353" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B354">
-        <v>267</v>
+        <v>110</v>
       </c>
       <c r="C354" t="s">
         <v>65</v>
@@ -9274,78 +9270,78 @@
         <v>1</v>
       </c>
       <c r="F354">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G354" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B355">
-        <v>110</v>
+        <v>228</v>
       </c>
       <c r="C355" t="s">
         <v>65</v>
       </c>
       <c r="E355" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F355">
         <v>2</v>
       </c>
       <c r="G355" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B356">
-        <v>228</v>
+        <v>71</v>
       </c>
       <c r="C356" t="s">
         <v>65</v>
       </c>
       <c r="E356" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F356">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G356" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B357">
-        <v>71</v>
+        <v>392</v>
       </c>
       <c r="C357" t="s">
         <v>65</v>
       </c>
       <c r="E357" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F357">
         <v>1</v>
       </c>
       <c r="G357" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B358">
-        <v>392</v>
+        <v>448</v>
       </c>
       <c r="C358" t="s">
         <v>65</v>
@@ -9354,38 +9350,38 @@
         <v>0</v>
       </c>
       <c r="F358">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G358" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B359">
-        <v>448</v>
+        <v>99</v>
       </c>
       <c r="C359" t="s">
         <v>65</v>
       </c>
       <c r="E359" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F359">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G359" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B360">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="C360" t="s">
         <v>65</v>
@@ -9397,15 +9393,15 @@
         <v>2</v>
       </c>
       <c r="G360" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B361">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="C361" t="s">
         <v>65</v>
@@ -9414,18 +9410,18 @@
         <v>1</v>
       </c>
       <c r="F361">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G361" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B362">
-        <v>89</v>
+        <v>724</v>
       </c>
       <c r="C362" t="s">
         <v>65</v>
@@ -9434,18 +9430,18 @@
         <v>1</v>
       </c>
       <c r="F362">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G362" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B363">
-        <v>724</v>
+        <v>40</v>
       </c>
       <c r="C363" t="s">
         <v>65</v>
@@ -9454,78 +9450,78 @@
         <v>1</v>
       </c>
       <c r="F363">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G363" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B364">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C364" t="s">
         <v>65</v>
       </c>
       <c r="E364" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F364">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G364" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="B365">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C365" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E365" t="b">
         <v>0</v>
       </c>
       <c r="F365">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G365" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B366">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C366" t="s">
         <v>66</v>
       </c>
       <c r="E366" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F366">
         <v>1</v>
       </c>
       <c r="G366" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B367">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C367" t="s">
         <v>66</v>
@@ -9537,15 +9533,15 @@
         <v>1</v>
       </c>
       <c r="G367" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B368">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C368" t="s">
         <v>66</v>
@@ -9557,15 +9553,15 @@
         <v>1</v>
       </c>
       <c r="G368" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B369">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="C369" t="s">
         <v>66</v>
@@ -9577,15 +9573,15 @@
         <v>1</v>
       </c>
       <c r="G369" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B370">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C370" t="s">
         <v>66</v>
@@ -9597,15 +9593,15 @@
         <v>1</v>
       </c>
       <c r="G370" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B371">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="C371" t="s">
         <v>66</v>
@@ -9617,15 +9613,15 @@
         <v>1</v>
       </c>
       <c r="G371" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B372">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C372" t="s">
         <v>66</v>
@@ -9637,55 +9633,55 @@
         <v>1</v>
       </c>
       <c r="G372" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B373">
-        <v>33</v>
+        <v>104</v>
       </c>
       <c r="C373" t="s">
         <v>66</v>
       </c>
       <c r="E373" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F373">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G373" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B374">
-        <v>104</v>
+        <v>36</v>
       </c>
       <c r="C374" t="s">
         <v>66</v>
       </c>
       <c r="E374" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F374">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G374" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B375">
-        <v>36</v>
+        <v>158</v>
       </c>
       <c r="C375" t="s">
         <v>66</v>
@@ -9697,15 +9693,15 @@
         <v>1</v>
       </c>
       <c r="G375" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B376">
-        <v>158</v>
+        <v>50</v>
       </c>
       <c r="C376" t="s">
         <v>66</v>
@@ -9717,15 +9713,15 @@
         <v>1</v>
       </c>
       <c r="G376" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B377">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="C377" t="s">
         <v>66</v>
@@ -9737,15 +9733,15 @@
         <v>1</v>
       </c>
       <c r="G377" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B378">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="C378" t="s">
         <v>66</v>
@@ -9757,15 +9753,15 @@
         <v>1</v>
       </c>
       <c r="G378" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B379">
-        <v>55</v>
+        <v>308</v>
       </c>
       <c r="C379" t="s">
         <v>66</v>
@@ -9774,98 +9770,98 @@
         <v>1</v>
       </c>
       <c r="F379">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G379" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B380">
-        <v>308</v>
+        <v>47</v>
       </c>
       <c r="C380" t="s">
         <v>66</v>
       </c>
       <c r="E380" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F380">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G380" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B381">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C381" t="s">
         <v>66</v>
       </c>
       <c r="E381" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F381">
         <v>1</v>
       </c>
       <c r="G381" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B382">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C382" t="s">
         <v>66</v>
       </c>
       <c r="E382" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F382">
         <v>1</v>
       </c>
       <c r="G382" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B383">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C383" t="s">
         <v>66</v>
       </c>
       <c r="E383" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F383">
         <v>1</v>
       </c>
       <c r="G383" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B384">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C384" t="s">
         <v>66</v>
@@ -9877,15 +9873,15 @@
         <v>1</v>
       </c>
       <c r="G384" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B385">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="C385" t="s">
         <v>66</v>
@@ -9897,55 +9893,55 @@
         <v>1</v>
       </c>
       <c r="G385" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B386">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C386" t="s">
         <v>66</v>
       </c>
       <c r="E386" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F386">
         <v>1</v>
       </c>
       <c r="G386" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B387">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="C387" t="s">
         <v>66</v>
       </c>
       <c r="E387" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F387">
         <v>1</v>
       </c>
       <c r="G387" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B388">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="C388" t="s">
         <v>66</v>
@@ -9957,15 +9953,15 @@
         <v>1</v>
       </c>
       <c r="G388" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B389">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="C389" t="s">
         <v>66</v>
@@ -9977,15 +9973,15 @@
         <v>1</v>
       </c>
       <c r="G389" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B390">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="C390" t="s">
         <v>66</v>
@@ -9997,15 +9993,15 @@
         <v>1</v>
       </c>
       <c r="G390" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B391">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C391" t="s">
         <v>66</v>
@@ -10017,15 +10013,15 @@
         <v>1</v>
       </c>
       <c r="G391" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B392">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C392" t="s">
         <v>66</v>
@@ -10037,15 +10033,15 @@
         <v>1</v>
       </c>
       <c r="G392" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B393">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="C393" t="s">
         <v>66</v>
@@ -10057,15 +10053,15 @@
         <v>1</v>
       </c>
       <c r="G393" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B394">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="C394" t="s">
         <v>66</v>
@@ -10077,55 +10073,55 @@
         <v>1</v>
       </c>
       <c r="G394" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B395">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="C395" t="s">
         <v>66</v>
       </c>
       <c r="E395" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F395">
         <v>1</v>
       </c>
       <c r="G395" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B396">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C396" t="s">
         <v>66</v>
       </c>
       <c r="E396" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F396">
         <v>1</v>
       </c>
       <c r="G396" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B397">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C397" t="s">
         <v>66</v>
@@ -10137,15 +10133,15 @@
         <v>1</v>
       </c>
       <c r="G397" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B398">
-        <v>39</v>
+        <v>304</v>
       </c>
       <c r="C398" t="s">
         <v>66</v>
@@ -10157,15 +10153,15 @@
         <v>1</v>
       </c>
       <c r="G398" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B399">
-        <v>304</v>
+        <v>42</v>
       </c>
       <c r="C399" t="s">
         <v>66</v>
@@ -10177,15 +10173,15 @@
         <v>1</v>
       </c>
       <c r="G399" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B400">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C400" t="s">
         <v>66</v>
@@ -10197,15 +10193,15 @@
         <v>1</v>
       </c>
       <c r="G400" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B401">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C401" t="s">
         <v>66</v>
@@ -10217,15 +10213,15 @@
         <v>1</v>
       </c>
       <c r="G401" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B402">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="C402" t="s">
         <v>66</v>
@@ -10237,15 +10233,15 @@
         <v>1</v>
       </c>
       <c r="G402" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B403">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="C403" t="s">
         <v>66</v>
@@ -10257,15 +10253,15 @@
         <v>1</v>
       </c>
       <c r="G403" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B404">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="C404" t="s">
         <v>66</v>
@@ -10277,15 +10273,15 @@
         <v>1</v>
       </c>
       <c r="G404" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B405">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C405" t="s">
         <v>66</v>
@@ -10297,15 +10293,15 @@
         <v>1</v>
       </c>
       <c r="G405" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B406">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="C406" t="s">
         <v>66</v>
@@ -10317,15 +10313,15 @@
         <v>1</v>
       </c>
       <c r="G406" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B407">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="C407" t="s">
         <v>66</v>
@@ -10337,55 +10333,55 @@
         <v>1</v>
       </c>
       <c r="G407" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B408">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C408" t="s">
         <v>66</v>
       </c>
       <c r="E408" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F408">
         <v>1</v>
       </c>
       <c r="G408" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B409">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C409" t="s">
         <v>66</v>
       </c>
       <c r="E409" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F409">
         <v>1</v>
       </c>
       <c r="G409" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B410">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C410" t="s">
         <v>66</v>
@@ -10397,15 +10393,15 @@
         <v>1</v>
       </c>
       <c r="G410" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B411">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="C411" t="s">
         <v>66</v>
@@ -10417,15 +10413,15 @@
         <v>1</v>
       </c>
       <c r="G411" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B412">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="C412" t="s">
         <v>66</v>
@@ -10434,18 +10430,18 @@
         <v>1</v>
       </c>
       <c r="F412">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G412" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B413">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="C413" t="s">
         <v>66</v>
@@ -10454,18 +10450,18 @@
         <v>1</v>
       </c>
       <c r="F413">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G413" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B414">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="C414" t="s">
         <v>66</v>
@@ -10477,15 +10473,15 @@
         <v>1</v>
       </c>
       <c r="G414" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B415">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="C415" t="s">
         <v>66</v>
@@ -10497,15 +10493,15 @@
         <v>1</v>
       </c>
       <c r="G415" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B416">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="C416" t="s">
         <v>66</v>
@@ -10514,38 +10510,38 @@
         <v>1</v>
       </c>
       <c r="F416">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G416" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="B417">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="C417" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E417" t="b">
         <v>1</v>
       </c>
       <c r="F417">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G417" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B418">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="C418" t="s">
         <v>67</v>
@@ -10557,15 +10553,15 @@
         <v>1</v>
       </c>
       <c r="G418" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B419">
-        <v>60</v>
+        <v>145</v>
       </c>
       <c r="C419" t="s">
         <v>67</v>
@@ -10574,18 +10570,18 @@
         <v>1</v>
       </c>
       <c r="F419">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G419" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B420">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="C420" t="s">
         <v>67</v>
@@ -10597,15 +10593,15 @@
         <v>2</v>
       </c>
       <c r="G420" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B421">
-        <v>129</v>
+        <v>217</v>
       </c>
       <c r="C421" t="s">
         <v>67</v>
@@ -10617,15 +10613,15 @@
         <v>2</v>
       </c>
       <c r="G421" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B422">
-        <v>217</v>
+        <v>128</v>
       </c>
       <c r="C422" t="s">
         <v>67</v>
@@ -10634,38 +10630,38 @@
         <v>1</v>
       </c>
       <c r="F422">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G422" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B423">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c r="C423" t="s">
         <v>67</v>
       </c>
       <c r="E423" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F423">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G423" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B424">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="C424" t="s">
         <v>67</v>
@@ -10674,38 +10670,38 @@
         <v>0</v>
       </c>
       <c r="F424">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G424" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B425">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="C425" t="s">
         <v>67</v>
       </c>
       <c r="E425" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F425">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G425" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B426">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="C426" t="s">
         <v>67</v>
@@ -10714,18 +10710,18 @@
         <v>1</v>
       </c>
       <c r="F426">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G426" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B427">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="C427" t="s">
         <v>67</v>
@@ -10737,15 +10733,15 @@
         <v>1</v>
       </c>
       <c r="G427" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B428">
-        <v>54</v>
+        <v>161</v>
       </c>
       <c r="C428" t="s">
         <v>67</v>
@@ -10757,15 +10753,15 @@
         <v>1</v>
       </c>
       <c r="G428" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B429">
-        <v>161</v>
+        <v>543</v>
       </c>
       <c r="C429" t="s">
         <v>67</v>
@@ -10774,18 +10770,18 @@
         <v>1</v>
       </c>
       <c r="F429">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G429" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B430">
-        <v>543</v>
+        <v>110</v>
       </c>
       <c r="C430" t="s">
         <v>67</v>
@@ -10794,18 +10790,18 @@
         <v>1</v>
       </c>
       <c r="F430">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G430" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B431">
-        <v>110</v>
+        <v>590</v>
       </c>
       <c r="C431" t="s">
         <v>67</v>
@@ -10817,35 +10813,35 @@
         <v>3</v>
       </c>
       <c r="G431" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B432">
-        <v>590</v>
+        <v>87</v>
       </c>
       <c r="C432" t="s">
         <v>67</v>
       </c>
       <c r="E432" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F432">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G432" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B433">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C433" t="s">
         <v>67</v>
@@ -10857,35 +10853,35 @@
         <v>1</v>
       </c>
       <c r="G433" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B434">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="C434" t="s">
         <v>67</v>
       </c>
       <c r="E434" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F434">
         <v>1</v>
       </c>
       <c r="G434" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B435">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="C435" t="s">
         <v>67</v>
@@ -10894,58 +10890,58 @@
         <v>1</v>
       </c>
       <c r="F435">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G435" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B436">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="C436" t="s">
         <v>67</v>
       </c>
       <c r="E436" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F436">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G436" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B437">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="C437" t="s">
         <v>67</v>
       </c>
       <c r="E437" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F437">
         <v>1</v>
       </c>
       <c r="G437" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B438">
-        <v>167</v>
+        <v>244</v>
       </c>
       <c r="C438" t="s">
         <v>67</v>
@@ -10957,15 +10953,15 @@
         <v>1</v>
       </c>
       <c r="G438" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B439">
-        <v>244</v>
+        <v>153</v>
       </c>
       <c r="C439" t="s">
         <v>67</v>
@@ -10974,18 +10970,18 @@
         <v>1</v>
       </c>
       <c r="F439">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G439" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B440">
-        <v>153</v>
+        <v>45</v>
       </c>
       <c r="C440" t="s">
         <v>67</v>
@@ -10994,18 +10990,18 @@
         <v>1</v>
       </c>
       <c r="F440">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G440" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B441">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="C441" t="s">
         <v>67</v>
@@ -11017,55 +11013,55 @@
         <v>1</v>
       </c>
       <c r="G441" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B442">
-        <v>22</v>
+        <v>390</v>
       </c>
       <c r="C442" t="s">
         <v>67</v>
       </c>
       <c r="E442" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F442">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G442" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B443">
-        <v>390</v>
+        <v>201</v>
       </c>
       <c r="C443" t="s">
         <v>67</v>
       </c>
       <c r="E443" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F443">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G443" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B444">
-        <v>201</v>
+        <v>84</v>
       </c>
       <c r="C444" t="s">
         <v>67</v>
@@ -11074,18 +11070,18 @@
         <v>1</v>
       </c>
       <c r="F444">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G444" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B445">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="C445" t="s">
         <v>67</v>
@@ -11094,18 +11090,18 @@
         <v>1</v>
       </c>
       <c r="F445">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G445" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B446">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C446" t="s">
         <v>67</v>
@@ -11114,18 +11110,18 @@
         <v>1</v>
       </c>
       <c r="F446">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G446" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B447">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="C447" t="s">
         <v>67</v>
@@ -11134,18 +11130,18 @@
         <v>1</v>
       </c>
       <c r="F447">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G447" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B448">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="C448" t="s">
         <v>67</v>
@@ -11154,18 +11150,18 @@
         <v>1</v>
       </c>
       <c r="F448">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G448" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B449">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="C449" t="s">
         <v>67</v>
@@ -11177,15 +11173,15 @@
         <v>1</v>
       </c>
       <c r="G449" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B450">
-        <v>102</v>
+        <v>1087</v>
       </c>
       <c r="C450" t="s">
         <v>67</v>
@@ -11197,15 +11193,15 @@
         <v>1</v>
       </c>
       <c r="G450" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="451" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B451">
-        <v>1087</v>
+        <v>105</v>
       </c>
       <c r="C451" t="s">
         <v>67</v>
@@ -11217,15 +11213,15 @@
         <v>1</v>
       </c>
       <c r="G451" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B452">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="C452" t="s">
         <v>67</v>
@@ -11234,18 +11230,18 @@
         <v>1</v>
       </c>
       <c r="F452">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G452" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B453">
-        <v>73</v>
+        <v>188</v>
       </c>
       <c r="C453" t="s">
         <v>67</v>
@@ -11254,18 +11250,18 @@
         <v>1</v>
       </c>
       <c r="F453">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G453" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B454">
-        <v>188</v>
+        <v>34</v>
       </c>
       <c r="C454" t="s">
         <v>67</v>
@@ -11274,18 +11270,18 @@
         <v>1</v>
       </c>
       <c r="F454">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G454" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B455">
-        <v>34</v>
+        <v>196</v>
       </c>
       <c r="C455" t="s">
         <v>67</v>
@@ -11294,18 +11290,18 @@
         <v>1</v>
       </c>
       <c r="F455">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G455" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B456">
-        <v>196</v>
+        <v>70</v>
       </c>
       <c r="C456" t="s">
         <v>67</v>
@@ -11314,18 +11310,18 @@
         <v>1</v>
       </c>
       <c r="F456">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G456" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B457">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="C457" t="s">
         <v>67</v>
@@ -11337,15 +11333,15 @@
         <v>1</v>
       </c>
       <c r="G457" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B458">
-        <v>140</v>
+        <v>189</v>
       </c>
       <c r="C458" t="s">
         <v>67</v>
@@ -11354,18 +11350,18 @@
         <v>1</v>
       </c>
       <c r="F458">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G458" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B459">
-        <v>189</v>
+        <v>53</v>
       </c>
       <c r="C459" t="s">
         <v>67</v>
@@ -11374,18 +11370,18 @@
         <v>1</v>
       </c>
       <c r="F459">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G459" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B460">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C460" t="s">
         <v>67</v>
@@ -11397,35 +11393,35 @@
         <v>1</v>
       </c>
       <c r="G460" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B461">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C461" t="s">
         <v>67</v>
       </c>
       <c r="E461" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F461">
         <v>1</v>
       </c>
       <c r="G461" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B462">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="C462" t="s">
         <v>67</v>
@@ -11434,38 +11430,38 @@
         <v>0</v>
       </c>
       <c r="F462">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G462" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B463">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C463" t="s">
         <v>67</v>
       </c>
       <c r="E463" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F463">
         <v>2</v>
       </c>
       <c r="G463" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="464" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B464">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="C464" t="s">
         <v>67</v>
@@ -11474,18 +11470,18 @@
         <v>1</v>
       </c>
       <c r="F464">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G464" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B465">
-        <v>42</v>
+        <v>190</v>
       </c>
       <c r="C465" t="s">
         <v>67</v>
@@ -11497,15 +11493,15 @@
         <v>3</v>
       </c>
       <c r="G465" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B466">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="C466" t="s">
         <v>67</v>
@@ -11517,15 +11513,15 @@
         <v>3</v>
       </c>
       <c r="G466" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B467">
-        <v>175</v>
+        <v>21</v>
       </c>
       <c r="C467" t="s">
         <v>67</v>
@@ -11534,18 +11530,18 @@
         <v>1</v>
       </c>
       <c r="F467">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G467" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B468">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="C468" t="s">
         <v>67</v>
@@ -11557,35 +11553,35 @@
         <v>2</v>
       </c>
       <c r="G468" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="469" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="B469">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="C469" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E469" t="b">
         <v>1</v>
       </c>
       <c r="F469">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G469" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="470" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B470">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C470" t="s">
         <v>68</v>
@@ -11597,55 +11593,55 @@
         <v>1</v>
       </c>
       <c r="G470" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="471" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B471">
-        <v>117</v>
+        <v>170</v>
       </c>
       <c r="C471" t="s">
         <v>68</v>
       </c>
       <c r="E471" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F471">
         <v>1</v>
       </c>
       <c r="G471" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="472" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B472">
-        <v>170</v>
+        <v>82</v>
       </c>
       <c r="C472" t="s">
         <v>68</v>
       </c>
       <c r="E472" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F472">
         <v>1</v>
       </c>
       <c r="G472" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B473">
-        <v>82</v>
+        <v>229</v>
       </c>
       <c r="C473" t="s">
         <v>68</v>
@@ -11657,15 +11653,15 @@
         <v>1</v>
       </c>
       <c r="G473" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B474">
-        <v>229</v>
+        <v>153</v>
       </c>
       <c r="C474" t="s">
         <v>68</v>
@@ -11677,35 +11673,35 @@
         <v>1</v>
       </c>
       <c r="G474" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B475">
-        <v>153</v>
+        <v>102</v>
       </c>
       <c r="C475" t="s">
         <v>68</v>
       </c>
       <c r="E475" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F475">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G475" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="476" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B476">
-        <v>102</v>
+        <v>163</v>
       </c>
       <c r="C476" t="s">
         <v>68</v>
@@ -11717,15 +11713,15 @@
         <v>2</v>
       </c>
       <c r="G476" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="477" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B477">
-        <v>163</v>
+        <v>89</v>
       </c>
       <c r="C477" t="s">
         <v>68</v>
@@ -11734,38 +11730,38 @@
         <v>0</v>
       </c>
       <c r="F477">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G477" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="478" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B478">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="C478" t="s">
         <v>68</v>
       </c>
       <c r="E478" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F478">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G478" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="479" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B479">
-        <v>43</v>
+        <v>143</v>
       </c>
       <c r="C479" t="s">
         <v>68</v>
@@ -11774,18 +11770,18 @@
         <v>1</v>
       </c>
       <c r="F479">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G479" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="480" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B480">
-        <v>143</v>
+        <v>36</v>
       </c>
       <c r="C480" t="s">
         <v>68</v>
@@ -11794,18 +11790,18 @@
         <v>1</v>
       </c>
       <c r="F480">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G480" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B481">
-        <v>36</v>
+        <v>145</v>
       </c>
       <c r="C481" t="s">
         <v>68</v>
@@ -11817,95 +11813,95 @@
         <v>1</v>
       </c>
       <c r="G481" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B482">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="C482" t="s">
         <v>68</v>
       </c>
       <c r="E482" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F482">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G482" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B483">
-        <v>180</v>
+        <v>131</v>
       </c>
       <c r="C483" t="s">
         <v>68</v>
       </c>
       <c r="E483" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F483">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G483" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B484">
-        <v>131</v>
+        <v>55</v>
       </c>
       <c r="C484" t="s">
         <v>68</v>
       </c>
       <c r="E484" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F484">
         <v>1</v>
       </c>
       <c r="G484" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="485" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B485">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="C485" t="s">
         <v>68</v>
       </c>
       <c r="E485" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F485">
         <v>1</v>
       </c>
       <c r="G485" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B486">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="C486" t="s">
         <v>68</v>
@@ -11917,15 +11913,15 @@
         <v>1</v>
       </c>
       <c r="G486" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B487">
-        <v>39</v>
+        <v>166</v>
       </c>
       <c r="C487" t="s">
         <v>68</v>
@@ -11934,18 +11930,18 @@
         <v>1</v>
       </c>
       <c r="F487">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G487" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B488">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="C488" t="s">
         <v>68</v>
@@ -11954,18 +11950,18 @@
         <v>1</v>
       </c>
       <c r="F488">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G488" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
+        <v>27</v>
+      </c>
+      <c r="B489">
         <v>26</v>
-      </c>
-      <c r="B489">
-        <v>140</v>
       </c>
       <c r="C489" t="s">
         <v>68</v>
@@ -11977,15 +11973,15 @@
         <v>1</v>
       </c>
       <c r="G489" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B490">
-        <v>26</v>
+        <v>154</v>
       </c>
       <c r="C490" t="s">
         <v>68</v>
@@ -11994,18 +11990,18 @@
         <v>1</v>
       </c>
       <c r="F490">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G490" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="491" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B491">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="C491" t="s">
         <v>68</v>
@@ -12014,18 +12010,18 @@
         <v>1</v>
       </c>
       <c r="F491">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G491" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="492" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B492">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="C492" t="s">
         <v>68</v>
@@ -12037,15 +12033,15 @@
         <v>1</v>
       </c>
       <c r="G492" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B493">
-        <v>143</v>
+        <v>36</v>
       </c>
       <c r="C493" t="s">
         <v>68</v>
@@ -12057,15 +12053,15 @@
         <v>1</v>
       </c>
       <c r="G493" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B494">
-        <v>36</v>
+        <v>413</v>
       </c>
       <c r="C494" t="s">
         <v>68</v>
@@ -12077,15 +12073,15 @@
         <v>1</v>
       </c>
       <c r="G494" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B495">
-        <v>413</v>
+        <v>185</v>
       </c>
       <c r="C495" t="s">
         <v>68</v>
@@ -12094,18 +12090,18 @@
         <v>1</v>
       </c>
       <c r="F495">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G495" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B496">
-        <v>185</v>
+        <v>126</v>
       </c>
       <c r="C496" t="s">
         <v>68</v>
@@ -12114,18 +12110,18 @@
         <v>1</v>
       </c>
       <c r="F496">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G496" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="497" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B497">
-        <v>126</v>
+        <v>379</v>
       </c>
       <c r="C497" t="s">
         <v>68</v>
@@ -12137,15 +12133,15 @@
         <v>1</v>
       </c>
       <c r="G497" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="498" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B498">
-        <v>379</v>
+        <v>54</v>
       </c>
       <c r="C498" t="s">
         <v>68</v>
@@ -12157,15 +12153,15 @@
         <v>1</v>
       </c>
       <c r="G498" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="499" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B499">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="C499" t="s">
         <v>68</v>
@@ -12174,18 +12170,18 @@
         <v>1</v>
       </c>
       <c r="F499">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G499" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="500" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B500">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="C500" t="s">
         <v>68</v>
@@ -12194,18 +12190,18 @@
         <v>1</v>
       </c>
       <c r="F500">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G500" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="501" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B501">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="C501" t="s">
         <v>68</v>
@@ -12217,15 +12213,15 @@
         <v>1</v>
       </c>
       <c r="G501" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="502" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B502">
-        <v>116</v>
+        <v>241</v>
       </c>
       <c r="C502" t="s">
         <v>68</v>
@@ -12237,15 +12233,15 @@
         <v>1</v>
       </c>
       <c r="G502" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="503" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B503">
-        <v>241</v>
+        <v>72</v>
       </c>
       <c r="C503" t="s">
         <v>68</v>
@@ -12257,15 +12253,15 @@
         <v>1</v>
       </c>
       <c r="G503" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="504" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B504">
-        <v>72</v>
+        <v>193</v>
       </c>
       <c r="C504" t="s">
         <v>68</v>
@@ -12274,18 +12270,18 @@
         <v>1</v>
       </c>
       <c r="F504">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G504" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="505" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B505">
-        <v>193</v>
+        <v>257</v>
       </c>
       <c r="C505" t="s">
         <v>68</v>
@@ -12294,18 +12290,18 @@
         <v>1</v>
       </c>
       <c r="F505">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G505" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="506" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B506">
-        <v>257</v>
+        <v>142</v>
       </c>
       <c r="C506" t="s">
         <v>68</v>
@@ -12314,18 +12310,18 @@
         <v>1</v>
       </c>
       <c r="F506">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G506" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="507" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B507">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="C507" t="s">
         <v>68</v>
@@ -12334,18 +12330,18 @@
         <v>1</v>
       </c>
       <c r="F507">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G507" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="508" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B508">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="C508" t="s">
         <v>68</v>
@@ -12357,15 +12353,15 @@
         <v>1</v>
       </c>
       <c r="G508" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="509" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B509">
-        <v>131</v>
+        <v>64</v>
       </c>
       <c r="C509" t="s">
         <v>68</v>
@@ -12374,98 +12370,98 @@
         <v>1</v>
       </c>
       <c r="F509">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G509" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="510" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B510">
-        <v>64</v>
+        <v>155</v>
       </c>
       <c r="C510" t="s">
         <v>68</v>
       </c>
       <c r="E510" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F510">
         <v>2</v>
       </c>
       <c r="G510" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="511" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B511">
-        <v>155</v>
+        <v>66</v>
       </c>
       <c r="C511" t="s">
         <v>68</v>
       </c>
       <c r="E511" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F511">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G511" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="512" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B512">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="C512" t="s">
         <v>68</v>
       </c>
       <c r="E512" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F512">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G512" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="513" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B513">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="C513" t="s">
         <v>68</v>
       </c>
       <c r="E513" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F513">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G513" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="514" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B514">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="C514" t="s">
         <v>68</v>
@@ -12474,18 +12470,18 @@
         <v>1</v>
       </c>
       <c r="F514">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G514" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="515" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B515">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="C515" t="s">
         <v>68</v>
@@ -12494,18 +12490,18 @@
         <v>1</v>
       </c>
       <c r="F515">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G515" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="516" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B516">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="C516" t="s">
         <v>68</v>
@@ -12517,15 +12513,15 @@
         <v>2</v>
       </c>
       <c r="G516" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="517" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B517">
-        <v>114</v>
+        <v>157</v>
       </c>
       <c r="C517" t="s">
         <v>68</v>
@@ -12534,18 +12530,18 @@
         <v>1</v>
       </c>
       <c r="F517">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G517" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="518" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B518">
-        <v>157</v>
+        <v>542</v>
       </c>
       <c r="C518" t="s">
         <v>68</v>
@@ -12554,18 +12550,18 @@
         <v>1</v>
       </c>
       <c r="F518">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G518" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="519" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B519">
-        <v>542</v>
+        <v>80</v>
       </c>
       <c r="C519" t="s">
         <v>68</v>
@@ -12574,49 +12570,29 @@
         <v>1</v>
       </c>
       <c r="F519">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G519" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="520" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B520">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="C520" t="s">
         <v>68</v>
       </c>
       <c r="E520" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F520">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G520" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A521" t="s">
-        <v>58</v>
-      </c>
-      <c r="B521">
-        <v>28</v>
-      </c>
-      <c r="C521" t="s">
-        <v>68</v>
-      </c>
-      <c r="E521" t="b">
-        <v>0</v>
-      </c>
-      <c r="F521">
-        <v>2</v>
-      </c>
-      <c r="G521" t="s">
         <v>583</v>
       </c>
     </row>
